--- a/data/Projects.xlsx
+++ b/data/Projects.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomasotrinci/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomasotrinci/Documents/PyCharm workspace/Linear-programming/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BBC618-725E-7944-A40E-5091F9214663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E12809-75F7-3441-A530-F612BFA30D62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="620" yWindow="1800" windowWidth="28300" windowHeight="17440" xr2:uid="{E687BE7C-C4AC-174B-9927-4EE201C1D060}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -532,7 +532,7 @@
   <dimension ref="A1:AQ12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AM15" sqref="AM15"/>
+      <selection activeCell="AO14" sqref="AO14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -793,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="AO2">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="AP2">
         <v>1</v>
@@ -1317,7 +1317,7 @@
         <v>2</v>
       </c>
       <c r="AO6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AP6">
         <v>2</v>
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="AO8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AP8">
         <v>2</v>
@@ -1710,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="AO9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AP9">
         <v>2</v>
